--- a/DescriptionAPI.xlsx
+++ b/DescriptionAPI.xlsx
@@ -238,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +249,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -274,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +296,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,7 +588,7 @@
   <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="D66" sqref="A60:D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,63 +964,70 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1064,74 +1093,82 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1157,17 +1194,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A76:B76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DescriptionAPI.xlsx
+++ b/DescriptionAPI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
   <si>
     <t>MUS</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>USER_MUSIC</t>
+  </si>
+  <si>
+    <t>/users/allUsers</t>
   </si>
 </sst>
 </file>
@@ -294,16 +297,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="A60:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="5" width="81" customWidth="1"/>
   </cols>
   <sheetData>
@@ -603,10 +606,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -657,554 +660,543 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
+      <c r="D14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
+      <c r="D22" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="6"/>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3"/>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>43</v>
+      <c r="D35" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="3"/>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
       </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>50</v>
+      <c r="D42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="C49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="3"/>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
       </c>
-      <c r="D55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>67</v>
+      <c r="D56" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="C63" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>11</v>
+      <c r="D64" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>6</v>
+      <c r="A65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D71" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D79" s="1"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D82" s="2"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+    </row>
+    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+    </row>
+    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A68:B68"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DescriptionAPI.xlsx
+++ b/DescriptionAPI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
   <si>
     <t>MUS</t>
   </si>
@@ -69,9 +69,6 @@
     <t>PLAYLISTS</t>
   </si>
   <si>
-    <t>/playlists/</t>
-  </si>
-  <si>
     <t>/playlists/:id</t>
   </si>
   <si>
@@ -235,6 +232,15 @@
   </si>
   <si>
     <t>/users/allUsers</t>
+  </si>
+  <si>
+    <t>/playlists/add</t>
+  </si>
+  <si>
+    <t>/users/register</t>
+  </si>
+  <si>
+    <t>/playlists/allPlaylists</t>
   </si>
 </sst>
 </file>
@@ -590,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -660,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -677,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -699,10 +705,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -710,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,7 +738,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6"/>
     </row>
@@ -741,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,10 +758,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -763,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -785,10 +791,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +802,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="6"/>
     </row>
@@ -805,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,10 +822,10 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,15 +833,15 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="6"/>
     </row>
@@ -844,10 +850,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -855,10 +861,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -866,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,10 +883,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,15 +894,15 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6"/>
     </row>
@@ -905,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
         <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -927,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,10 +944,10 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,15 +955,15 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="3"/>
@@ -969,10 +975,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -993,10 +999,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,15 +1023,15 @@
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B52" s="6"/>
     </row>
@@ -1034,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,10 +1051,10 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1056,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1078,15 +1084,15 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="3"/>
@@ -1186,17 +1192,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DescriptionAPI.xlsx
+++ b/DescriptionAPI.xlsx
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,17 +1192,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A31:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DescriptionAPI.xlsx
+++ b/DescriptionAPI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>MUS</t>
   </si>
@@ -156,18 +156,9 @@
     <t>Просмотр списка коминтариев (авторизированный пользователь)</t>
   </si>
   <si>
-    <t>GENRES</t>
-  </si>
-  <si>
-    <t>/genre/</t>
-  </si>
-  <si>
     <t>Добавление жанра (администратор)</t>
   </si>
   <si>
-    <t>(id - идентификатор жанра) - Просмотр конкретного жанра (авторизированный пользователь)</t>
-  </si>
-  <si>
     <t>(id - идентификатор жанра) - Изменение жанра (администратор)</t>
   </si>
   <si>
@@ -216,12 +207,6 @@
     <t>Добавление подписки  (авторизированный пользователь)</t>
   </si>
   <si>
-    <t>(id - идентификатор подписки) - Просмотр конкретного подписки  (авторизированный пользователь)</t>
-  </si>
-  <si>
-    <t>(id - идентификатор подписки) - Изменение подписки (авторизированный пользователь)</t>
-  </si>
-  <si>
     <t>(id - идентификатор подписки) - Удаление подписки  (авторизированный пользователь)</t>
   </si>
   <si>
@@ -241,6 +226,15 @@
   </si>
   <si>
     <t>/playlists/allPlaylists</t>
+  </si>
+  <si>
+    <t>GENRE</t>
+  </si>
+  <si>
+    <t>/genre/add</t>
+  </si>
+  <si>
+    <t>/genre/all</t>
   </si>
 </sst>
 </file>
@@ -594,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -666,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -683,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -727,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -902,7 +896,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B38" s="6"/>
     </row>
@@ -911,139 +905,139 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="D52" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" t="s">
         <v>62</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1051,63 +1045,66 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
         <v>63</v>
       </c>
-      <c r="D54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,93 +1113,57 @@
         <v>2</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-    </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D70" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-    </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D78" s="1"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="2"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+    </row>
+    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A64:B64"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
